--- a/export/inputDSKH.xlsx
+++ b/export/inputDSKH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JAVA_SGU_24-25\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2117AB-FF1D-4F33-9F9A-FEA9D633C4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437D25A9-3CCC-4CF5-A321-5A6D03E73529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="14784" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="14784" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Địa chỉ</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>Nguyễn</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
     <t>123 An Dương Vương, Quận 5</t>
   </si>
   <si>
@@ -55,6 +49,57 @@
   </si>
   <si>
     <t>0945698712</t>
+  </si>
+  <si>
+    <t>Lan</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>KH011</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Tuan</t>
+  </si>
+  <si>
+    <t>0945698713</t>
+  </si>
+  <si>
+    <t>456 Lê Lợi</t>
+  </si>
+  <si>
+    <t>KH012</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>0945698722</t>
+  </si>
+  <si>
+    <t>789 Trần Hưng Đạo</t>
+  </si>
+  <si>
+    <t>KH013</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>Hung</t>
+  </si>
+  <si>
+    <t>0945698733</t>
+  </si>
+  <si>
+    <t>101 Nguyễn Trãi</t>
   </si>
 </sst>
 </file>
@@ -373,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,19 +450,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
